--- a/data/T30R10_data.xlsx
+++ b/data/T30R10_data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/New Mexico/USGS/Research/Sage GLO/Sage_GLO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA3A2C-896F-4B36-B724-BBE74660F205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16AA3B4-471A-234A-A9BA-C7DB37F2AF43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0F92746C-EFA4-473B-9CA1-D912E261628D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{0F92746C-EFA4-473B-9CA1-D912E261628D}"/>
   </bookViews>
   <sheets>
-    <sheet name="1881" sheetId="1" r:id="rId1"/>
+    <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1880notes" sheetId="3" r:id="rId2"/>
-    <sheet name="1940" sheetId="2" r:id="rId3"/>
+    <sheet name="1940Survey" sheetId="2" r:id="rId3"/>
     <sheet name="1940notes" sheetId="4" r:id="rId4"/>
+    <sheet name="1880Metadata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -348,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="192">
   <si>
     <t>Survey_type</t>
   </si>
@@ -921,13 +922,16 @@
   </si>
   <si>
     <t xml:space="preserve">The only use which is being made of the township is for grazing for sheep. Grazing is the only evident use to which it can be put. </t>
+  </si>
+  <si>
+    <t>Actually surveyed in 1881; tab reads 1880 for consistency in the data processing R script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,6 +974,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -997,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1015,6 +1026,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1348,25 +1360,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FD3A4E-E68C-4250-A5A7-5B4A62853733}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="32.5" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1452,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -1527,7 +1539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -1643,7 +1655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1672,7 +1684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -1730,7 +1742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -1759,7 +1771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -1817,7 +1829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -1904,7 +1916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -1933,7 +1945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -1962,7 +1974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -1991,7 +2003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -2020,7 +2032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2052,7 +2064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -2081,7 +2093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -2139,7 +2151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -2168,7 +2180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -2255,7 +2267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -2284,7 +2296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -2371,7 +2383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2487,7 +2499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -2516,7 +2528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2661,7 +2673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2690,7 +2702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2719,7 +2731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -2777,7 +2789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2835,7 +2847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -2925,7 +2937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -2954,7 +2966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -2983,7 +2995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -3012,7 +3024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -3070,7 +3082,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -3099,7 +3111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -3128,7 +3140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -3186,7 +3198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -3215,7 +3227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3244,7 +3256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -3302,7 +3314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -3334,7 +3346,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -3392,7 +3404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -3421,7 +3433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -3450,7 +3462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -3479,7 +3491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -3508,7 +3520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -3557,14 +3569,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3578,24 +3590,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B80E118-EC32-4FE5-925D-DEF896990AF6}">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" customWidth="1"/>
-    <col min="9" max="9" width="64.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" customWidth="1"/>
+    <col min="9" max="9" width="64.5" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3669,7 +3681,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -3698,7 +3710,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -3727,7 +3739,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -3756,7 +3768,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -3814,7 +3826,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -3843,7 +3855,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -3901,7 +3913,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -3930,7 +3942,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -3959,7 +3971,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -3988,7 +4000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -4017,7 +4029,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -4046,7 +4058,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -4104,7 +4116,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -4165,7 +4177,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -4194,7 +4206,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -4223,7 +4235,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -4252,7 +4264,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -4281,7 +4293,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -4310,7 +4322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -4339,7 +4351,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -4368,7 +4380,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -4426,7 +4438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -4455,7 +4467,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -4484,7 +4496,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -4513,7 +4525,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -4542,7 +4554,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -4600,7 +4612,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -4629,7 +4641,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -4658,7 +4670,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -4687,7 +4699,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -4716,7 +4728,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -4745,7 +4757,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -4774,7 +4786,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -4803,7 +4815,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -4832,7 +4844,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -4861,7 +4873,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -4890,7 +4902,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -4919,7 +4931,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -4948,7 +4960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -4977,7 +4989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -5006,7 +5018,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -5035,7 +5047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -5064,7 +5076,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -5093,7 +5105,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -5122,7 +5134,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -5151,7 +5163,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -5180,7 +5192,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -5209,7 +5221,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -5238,7 +5250,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -5267,7 +5279,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -5296,7 +5308,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -5325,7 +5337,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -5354,7 +5366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -5383,7 +5395,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -5412,7 +5424,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -5441,7 +5453,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -5470,7 +5482,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -5499,7 +5511,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -5528,7 +5540,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -5557,7 +5569,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -5586,7 +5598,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -5615,7 +5627,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -5644,7 +5656,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -5673,7 +5685,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -5702,7 +5714,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -5731,7 +5743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -5760,7 +5772,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -5789,7 +5801,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -5818,7 +5830,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -5847,7 +5859,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -5876,7 +5888,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -5905,7 +5917,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -5950,25 +5962,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2153A5B-E4A4-433F-834B-C0D42FACA627}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260456CC-6A58-4443-AFE1-4F481CE560F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/T30R10_data.xlsx
+++ b/data/T30R10_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041DC435-FEEB-49F7-BB4E-9FB71073D8BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F37170A-4397-4204-BF2B-D70F6E285449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35640" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{0F92746C-EFA4-473B-9CA1-D912E261628D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0F92746C-EFA4-473B-9CA1-D912E261628D}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1880notes" sheetId="3" r:id="rId2"/>
     <sheet name="1940Survey" sheetId="2" r:id="rId3"/>
     <sheet name="1940notes" sheetId="4" r:id="rId4"/>
-    <sheet name="2004Survey" sheetId="6" r:id="rId5"/>
+    <sheet name="2019Survey" sheetId="6" r:id="rId5"/>
     <sheet name="1880Metadata" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -5771,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24C7F48-0820-4589-99DD-4BB71CA80998}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5855,7 +5855,7 @@
         <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5910,7 +5910,7 @@
         <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5921,7 +5921,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6042,7 +6042,7 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6163,7 +6163,7 @@
         <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6284,7 +6284,7 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6350,7 +6350,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/T30R10_data.xlsx
+++ b/data/T30R10_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F37170A-4397-4204-BF2B-D70F6E285449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BABC9D-B8BE-422F-B1FE-1DE76CF85418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0F92746C-EFA4-473B-9CA1-D912E261628D}"/>
   </bookViews>
@@ -5771,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24C7F48-0820-4589-99DD-4BB71CA80998}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5811,7 +5811,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,7 +5844,7 @@
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5877,7 +5877,7 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6119,7 +6119,7 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6174,7 +6174,7 @@
         <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6196,7 +6196,7 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6361,7 +6361,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6427,7 +6427,7 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6449,7 +6449,7 @@
         <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6581,7 +6581,7 @@
         <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/T30R10_data.xlsx
+++ b/data/T30R10_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BABC9D-B8BE-422F-B1FE-1DE76CF85418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA795703-BFED-4996-BAAE-376E5F5EB3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0F92746C-EFA4-473B-9CA1-D912E261628D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F92746C-EFA4-473B-9CA1-D912E261628D}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D4147E51-EA87-4375-8198-180C44A18357}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D4147E51-EA87-4375-8198-180C44A18357}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{772E1766-85D6-4CE9-8F66-B1CE9D330DAB}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{772E1766-85D6-4CE9-8F66-B1CE9D330DAB}">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{F6A520DB-245D-476D-83ED-D31BF3B64A0A}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{F6A520DB-245D-476D-83ED-D31BF3B64A0A}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{49D52413-3DA2-4699-A614-5D2A466C2D2D}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{49D52413-3DA2-4699-A614-5D2A466C2D2D}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{6C345258-C529-42BD-8A81-66C8F7FD6BFC}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{6C345258-C529-42BD-8A81-66C8F7FD6BFC}">
       <text>
         <r>
           <rPr>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="175">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1308,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FD3A4E-E68C-4250-A5A7-5B4A62853733}">
-  <dimension ref="A1:AD73"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,16 +1319,16 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,60 +1338,58 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
@@ -1400,9 +1398,8 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1413,25 +1410,25 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -1442,25 +1439,25 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1471,25 +1468,25 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1500,25 +1497,25 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
         <v>114</v>
       </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
       <c r="I5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>117</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -1529,25 +1526,25 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1558,25 +1555,25 @@
         <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>123</v>
       </c>
       <c r="L7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1587,25 +1584,25 @@
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -1616,25 +1613,25 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>127</v>
       </c>
       <c r="L9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -1645,25 +1642,25 @@
         <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -1674,25 +1671,25 @@
         <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1703,25 +1700,25 @@
         <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -1732,25 +1729,25 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -1761,25 +1758,25 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1790,25 +1787,25 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" t="s">
-        <v>96</v>
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1819,22 +1816,22 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,22 +1845,22 @@
         <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1877,22 +1874,22 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1906,22 +1903,22 @@
         <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1935,22 +1932,22 @@
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,22 +1961,22 @@
         <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1993,22 +1990,22 @@
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2022,22 +2019,22 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2051,22 +2048,22 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2080,25 +2077,25 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2112,22 +2109,22 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2141,22 +2138,22 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2170,22 +2167,22 @@
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" t="s">
+        <v>112</v>
       </c>
       <c r="I28" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2199,22 +2196,22 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
         <v>114</v>
       </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
       <c r="I29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2228,22 +2225,22 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2257,22 +2254,22 @@
         <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
-      </c>
-      <c r="J31" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2286,22 +2283,22 @@
         <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" t="s">
+        <v>126</v>
       </c>
       <c r="I32" t="s">
-        <v>126</v>
-      </c>
-      <c r="J32" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2315,22 +2312,22 @@
         <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" t="s">
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,22 +2341,22 @@
         <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" t="s">
+        <v>94</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2373,22 +2370,22 @@
         <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" t="s">
+        <v>101</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2402,25 +2399,25 @@
         <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="6" t="s">
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="K36" t="s">
+        <v>130</v>
+      </c>
       <c r="L36" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2434,22 +2431,22 @@
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>98</v>
       </c>
       <c r="I37" t="s">
-        <v>98</v>
-      </c>
-      <c r="J37" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2463,22 +2460,22 @@
         <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
         <v>103</v>
       </c>
+      <c r="H38" t="s">
+        <v>118</v>
+      </c>
       <c r="I38" t="s">
-        <v>118</v>
-      </c>
-      <c r="J38" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2492,22 +2489,22 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
       </c>
       <c r="I39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J39" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2521,22 +2518,22 @@
         <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
       </c>
       <c r="I40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2550,22 +2547,22 @@
         <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" t="s">
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
-      </c>
-      <c r="J41" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2579,22 +2576,22 @@
         <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" t="s">
+        <v>101</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J42" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2608,25 +2605,25 @@
         <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>125</v>
       </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2640,22 +2637,22 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" t="s">
+        <v>94</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
-      </c>
-      <c r="J44" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2669,22 +2666,22 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" t="s">
+        <v>120</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
-      </c>
-      <c r="J45" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2698,22 +2695,22 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" t="s">
+        <v>94</v>
       </c>
       <c r="I46" t="s">
-        <v>94</v>
-      </c>
-      <c r="J46" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2727,22 +2724,22 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" t="s">
+        <v>111</v>
       </c>
       <c r="I47" t="s">
-        <v>111</v>
-      </c>
-      <c r="J47" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2756,22 +2753,22 @@
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s">
+        <v>94</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J48" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2785,22 +2782,22 @@
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" t="s">
+        <v>94</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
-      </c>
-      <c r="J49" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2814,22 +2811,22 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>103</v>
       </c>
+      <c r="H50" t="s">
+        <v>104</v>
+      </c>
       <c r="I50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J50" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2843,22 +2840,22 @@
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" t="s">
+        <v>94</v>
       </c>
       <c r="I51" t="s">
-        <v>94</v>
-      </c>
-      <c r="J51" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2872,22 +2869,22 @@
         <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" t="s">
-        <v>96</v>
-      </c>
-      <c r="G52" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" t="s">
+        <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>94</v>
-      </c>
-      <c r="J52" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2901,22 +2898,22 @@
         <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>94</v>
-      </c>
-      <c r="J53" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2930,22 +2927,22 @@
         <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
       </c>
+      <c r="H54" t="s">
+        <v>119</v>
+      </c>
       <c r="I54" t="s">
-        <v>119</v>
-      </c>
-      <c r="J54" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2959,22 +2956,22 @@
         <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" t="s">
-        <v>96</v>
-      </c>
-      <c r="G55" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F55" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" t="s">
+        <v>94</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
-      </c>
-      <c r="J55" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,22 +2985,22 @@
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" t="s">
+        <v>94</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
-      </c>
-      <c r="J56" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3017,22 +3014,22 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" t="s">
-        <v>96</v>
-      </c>
-      <c r="G57" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" t="s">
+        <v>101</v>
       </c>
       <c r="I57" t="s">
-        <v>101</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3046,22 +3043,22 @@
         <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H58" t="s">
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>94</v>
-      </c>
-      <c r="J58" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3075,22 +3072,22 @@
         <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" t="s">
-        <v>96</v>
-      </c>
-      <c r="G59" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F59" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" t="s">
+        <v>100</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
-      </c>
-      <c r="J59" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,22 +3101,22 @@
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" t="s">
+        <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
-      </c>
-      <c r="J60" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3133,22 +3130,22 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" t="s">
-        <v>96</v>
-      </c>
-      <c r="G61" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" t="s">
+        <v>94</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
-      </c>
-      <c r="J61" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3162,22 +3159,22 @@
         <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" t="s">
-        <v>96</v>
-      </c>
-      <c r="G62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" t="s">
         <v>103</v>
       </c>
+      <c r="H62" t="s">
+        <v>119</v>
+      </c>
       <c r="I62" t="s">
-        <v>119</v>
-      </c>
-      <c r="J62" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>169</v>
       </c>
       <c r="L62" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3191,22 +3188,22 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" t="s">
-        <v>92</v>
-      </c>
-      <c r="G63" t="s">
-        <v>92</v>
+        <v>92</v>
+      </c>
+      <c r="F63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" t="s">
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-      <c r="J63" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3220,22 +3217,22 @@
         <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" t="s">
         <v>103</v>
       </c>
+      <c r="H64" t="s">
+        <v>119</v>
+      </c>
       <c r="I64" t="s">
-        <v>119</v>
-      </c>
-      <c r="J64" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
+        <v>169</v>
       </c>
       <c r="L64" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3249,22 +3246,22 @@
         <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" t="s">
-        <v>96</v>
-      </c>
-      <c r="G65" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F65" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" t="s">
+        <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-      <c r="J65" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K65" t="s">
+        <v>21</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3278,22 +3275,22 @@
         <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" t="s">
-        <v>96</v>
-      </c>
-      <c r="G66" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F66" t="s">
+        <v>95</v>
+      </c>
+      <c r="H66" t="s">
+        <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
-      </c>
-      <c r="J66" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K66" t="s">
+        <v>169</v>
       </c>
       <c r="L66" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3307,22 +3304,22 @@
         <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67" t="s">
+        <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-      <c r="J67" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3336,22 +3333,22 @@
         <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F68" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" t="s">
+        <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
-      </c>
-      <c r="J68" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K68" t="s">
+        <v>169</v>
       </c>
       <c r="L68" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3365,22 +3362,22 @@
         <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" t="s">
         <v>103</v>
       </c>
+      <c r="H69" t="s">
+        <v>118</v>
+      </c>
       <c r="I69" t="s">
-        <v>118</v>
-      </c>
-      <c r="J69" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K69" t="s">
+        <v>21</v>
       </c>
       <c r="L69" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3394,22 +3391,22 @@
         <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F70" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" t="s">
+        <v>94</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J70" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K70" t="s">
+        <v>169</v>
       </c>
       <c r="L70" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3423,22 +3420,22 @@
         <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="F71" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" t="s">
+        <v>110</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
-      </c>
-      <c r="J71" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K71" t="s">
+        <v>21</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3452,22 +3449,22 @@
         <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" t="s">
         <v>103</v>
       </c>
+      <c r="H72" t="s">
+        <v>119</v>
+      </c>
       <c r="I72" t="s">
-        <v>119</v>
-      </c>
-      <c r="J72" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K72" t="s">
+        <v>167</v>
       </c>
       <c r="L72" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3481,32 +3478,32 @@
         <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" t="s">
         <v>103</v>
       </c>
+      <c r="H73" t="s">
+        <v>102</v>
+      </c>
       <c r="I73" t="s">
-        <v>102</v>
-      </c>
-      <c r="J73" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="K73" t="s">
+        <v>21</v>
       </c>
       <c r="L73" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T73">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="D1">
+  <conditionalFormatting sqref="L1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
+      <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5771,8 +5768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24C7F48-0820-4589-99DD-4BB71CA80998}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
